--- a/outputs/mod_4.xlsx
+++ b/outputs/mod_4.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-6.299948849632298</v>
+        <v>-6.190262061689159</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06626841286322407</v>
+        <v>0.04979170659428885</v>
       </c>
       <c r="F2" t="n">
-        <v>-95.06714552882374</v>
+        <v>-124.32315510148</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.546714190562088</v>
+        <v>7.583604202306773</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05756307286450556</v>
+        <v>0.06270321139637046</v>
       </c>
       <c r="F3" t="n">
-        <v>131.1033934606978</v>
+        <v>120.9444306507361</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-5.615468160843358</v>
+        <v>-5.530362883645833</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04482544409951625</v>
+        <v>0.03601768618966506</v>
       </c>
       <c r="F4" t="n">
-        <v>-125.2741221788355</v>
+        <v>-153.5457567852518</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.799394811756841</v>
+        <v>1.765558564136067</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0816012643382041</v>
+        <v>0.07380718373507195</v>
       </c>
       <c r="F5" t="n">
-        <v>22.05106534010405</v>
+        <v>23.92122927320288</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-14.1870231002566</v>
+        <v>-14.11526463126558</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05185800923919347</v>
+        <v>0.04713631413216796</v>
       </c>
       <c r="F6" t="n">
-        <v>-273.5743872237632</v>
+        <v>-299.4562661748872</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-8.351066516670663</v>
+        <v>-8.392951529243298</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03090331115273656</v>
+        <v>0.02613851231790497</v>
       </c>
       <c r="F7" t="n">
-        <v>-270.2320950462668</v>
+        <v>-321.0952263528058</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-11.97528100917892</v>
+        <v>-11.97213196173097</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2005994333322272</v>
+        <v>0.1843215271143889</v>
       </c>
       <c r="F8" t="n">
-        <v>-59.69748174385815</v>
+        <v>-64.95243474356164</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-11.00320567909379</v>
+        <v>-10.91739025503734</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05066233367273891</v>
+        <v>0.03951185204962188</v>
       </c>
       <c r="F9" t="n">
-        <v>-217.1871068982073</v>
+        <v>-276.306720356375</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -714,13 +714,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.837919095493362</v>
+        <v>2.721157888492214</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1735330688158912</v>
+        <v>0.03666920559851694</v>
       </c>
       <c r="F10" t="n">
-        <v>16.35376539386988</v>
+        <v>74.20825851221248</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.649565116382985</v>
+        <v>3.566408013177578</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1302915027876974</v>
+        <v>0.1351505535411541</v>
       </c>
       <c r="F11" t="n">
-        <v>28.01076845609605</v>
+        <v>26.38840848026262</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-45.58758306572746</v>
+        <v>-45.5735821934728</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1651106155331684</v>
+        <v>0.06764869019303577</v>
       </c>
       <c r="F12" t="n">
-        <v>-276.1032833565419</v>
+        <v>-673.6801860232391</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-3.24962784924985</v>
+        <v>-3.248282116824709</v>
       </c>
       <c r="E13" t="n">
-        <v>1.773718259001905</v>
+        <v>1.699483191753331</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.832099225881826</v>
+        <v>-1.91133524155276</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -826,23 +826,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mint_purchase_InStore</t>
+          <t>discount_inc</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-2.183087613062395</v>
+        <v>0.2092054828943802</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1966215245189406</v>
+        <v>0.4319270024503398</v>
       </c>
       <c r="F14" t="n">
-        <v>-11.10299403080916</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4843537952189811</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -855,17 +851,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fluoride_purchase_InStore</t>
+          <t>mint_purchase_InStore</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.010286369966117</v>
+        <v>-2.229477996849051</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07014497108835603</v>
+        <v>0.1641013225268258</v>
       </c>
       <c r="F15" t="n">
-        <v>85.68378141314561</v>
+        <v>-13.58598433284775</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -884,17 +880,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>kids_purchase_InStore</t>
+          <t>fluoride_purchase_InStore</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-2.08751415662057</v>
+        <v>6.053800200531559</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3444286823857521</v>
+        <v>0.0386741930748419</v>
       </c>
       <c r="F16" t="n">
-        <v>-6.060802318090929</v>
+        <v>156.5333293138478</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -913,17 +909,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sizeNorm_purchase_InStore</t>
+          <t>kids_purchase_InStore</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-6.620791081176669</v>
+        <v>-2.157624911201334</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1802575917845811</v>
+        <v>0.3277297566353408</v>
       </c>
       <c r="F17" t="n">
-        <v>-36.72961019632905</v>
+        <v>-6.583548998884728</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -942,17 +938,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>discount_purchase_InStore</t>
+          <t>sizeNorm_purchase_InStore</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.204463202324176</v>
+        <v>-6.546561135258249</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3247145909823521</v>
+        <v>0.1166750560267083</v>
       </c>
       <c r="F18" t="n">
-        <v>3.709298059814126</v>
+        <v>-56.10934640356774</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -971,19 +967,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>white_ed_HighSchool</t>
+          <t>discount_purchase_InStore</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.2747042572318969</v>
+        <v>1.341067688536664</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6665264009153493</v>
+        <v>0.1260543891637066</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.412143100190243</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>10.6388020078779</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -996,19 +996,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>fluoride_ed_HighSchool</t>
+          <t>brand_Aquafresh_ed_HighSchool</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.2977877071457793</v>
+        <v>1.327204685626635</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6203584765014786</v>
+        <v>0.3956954632631855</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4800252086908812</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
+        <v>3.354106399607324</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1021,19 +1025,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sizeNorm_ed_HighSchool</t>
+          <t>brand_Sensodyne_ed_HighSchool</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.07736978318520295</v>
+        <v>-0.8615728665845095</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7209407408885675</v>
+        <v>0.4827849933238855</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1073178124041704</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>-1.784589161839393</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1054,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>familypack_ed_HighSchool</t>
+          <t>white_ed_HighSchool</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.1643664691610351</v>
+        <v>-0.3681727851264142</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5415747934155687</v>
+        <v>0.6518613141237047</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.3034972660459682</v>
+        <v>-0.5648023239749207</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1066,28 +1074,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>betaU</t>
+          <t>betaO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>brand_Aquafresh</t>
+          <t>fluoride_ed_HighSchool</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-6.205913363220425</v>
+        <v>-0.169259462507365</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2168508484973353</v>
+        <v>0.3258976738785976</v>
       </c>
       <c r="F23" t="n">
-        <v>-28.61834946104297</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.5193638251324769</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1095,28 +1099,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>betaU</t>
+          <t>betaO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brand_Colgate</t>
+          <t>sizeNorm_ed_HighSchool</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6.420325281444064</v>
+        <v>-0.1013840461851527</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2322488691205246</v>
+        <v>0.5045590259679944</v>
       </c>
       <c r="F24" t="n">
-        <v>27.64416165192288</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.2009359479609899</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brand_Sensodyne</t>
+          <t>brand_Aquafresh</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6.40646835658515</v>
+        <v>-5.913292123100133</v>
       </c>
       <c r="E25" t="n">
-        <v>0.105415599499737</v>
+        <v>0.01963164020592483</v>
       </c>
       <c r="F25" t="n">
-        <v>60.77343758407532</v>
+        <v>-301.2123317803828</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1158,17 +1158,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>mint</t>
+          <t>brand_Colgate</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.899087408871807</v>
+        <v>6.609141874361804</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2226391134960929</v>
+        <v>0.355057119857493</v>
       </c>
       <c r="F26" t="n">
-        <v>8.529891172537097</v>
+        <v>18.61430599396084</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1187,17 +1187,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>brand_Sensodyne</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-4.581839625056106</v>
+        <v>6.558105215577594</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1369690924111951</v>
+        <v>0.01965249242575925</v>
       </c>
       <c r="F27" t="n">
-        <v>-33.45163163745701</v>
+        <v>333.7034852119644</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1216,19 +1216,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>fluoride</t>
+          <t>mint</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.08563545970020424</v>
+        <v>1.933539426334018</v>
       </c>
       <c r="E28" t="n">
-        <v>0.400629973077023</v>
+        <v>0.1587763920369567</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2137520042309476</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+        <v>12.17775137429731</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1241,17 +1245,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>kids</t>
+          <t>white</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-2.710511665974165</v>
+        <v>-4.37255574530918</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1282015427406291</v>
+        <v>0.2165791234042512</v>
       </c>
       <c r="F29" t="n">
-        <v>-21.14258228122836</v>
+        <v>-20.18918387229631</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1270,23 +1274,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sizeNorm</t>
+          <t>fluoride</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-4.362016294811269</v>
+        <v>0.1159123142384506</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3201840677724479</v>
+        <v>0.3960048889432048</v>
       </c>
       <c r="F30" t="n">
-        <v>-13.62346454387392</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2927042505656409</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>discount</t>
+          <t>kids</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4.493309151999809</v>
+        <v>-2.710433079715244</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3234976419966422</v>
+        <v>0.137465530859498</v>
       </c>
       <c r="F31" t="n">
-        <v>13.88977404678099</v>
+        <v>-19.71718337512222</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1328,17 +1328,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>familypack</t>
+          <t>sizeNorm</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-3.639271591416773</v>
+        <v>-4.177172301359525</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3071315847912282</v>
+        <v>0.1922348020137652</v>
       </c>
       <c r="F32" t="n">
-        <v>-11.84922610252071</v>
+        <v>-21.72953210137472</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1357,19 +1357,77 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>discount</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4.401483555240157</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1691585110340978</v>
+      </c>
+      <c r="F33" t="n">
+        <v>26.01987643620802</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>betaU</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>familypack</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>-3.739667051582335</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2905797290630483</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-12.86967629724413</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>betaU</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>priceperoz</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>0.5533286834595822</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.7490845300782966</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.7386732221018456</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>0.3868236113617964</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4995186395130905</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.7743927468629712</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1382,7 +1440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1437,13 +1495,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-9.357071858132473</v>
+        <v>-9.487620836938314</v>
       </c>
       <c r="E2" t="n">
-        <v>73.14548574621644</v>
+        <v>83.43982940763175</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1279241194815154</v>
+        <v>-0.1137061389541928</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1462,13 +1520,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.084400056719245</v>
+        <v>7.02655493941054</v>
       </c>
       <c r="E3" t="n">
-        <v>39.95365694117572</v>
+        <v>41.85317648477103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1773154349087419</v>
+        <v>0.1678858220466795</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1487,13 +1545,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-7.344243310895273</v>
+        <v>-7.28112893587523</v>
       </c>
       <c r="E4" t="n">
-        <v>47.07972916509404</v>
+        <v>49.55562890977488</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1559958700089647</v>
+        <v>-0.1469283933240331</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -1512,13 +1570,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.977834243145955</v>
+        <v>1.989955794719959</v>
       </c>
       <c r="E5" t="n">
-        <v>47.11617801822555</v>
+        <v>48.36418383509057</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04197781582328019</v>
+        <v>0.0411452367625017</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -1537,13 +1595,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-15.57020818321701</v>
+        <v>-15.56703251059482</v>
       </c>
       <c r="E6" t="n">
-        <v>35.24339044901516</v>
+        <v>35.60072108353096</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4417908715604886</v>
+        <v>-0.4372673371999815</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -1562,13 +1620,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-8.668706764164874</v>
+        <v>-8.596969730095228</v>
       </c>
       <c r="E7" t="n">
-        <v>57.13357765379485</v>
+        <v>59.73873147879041</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.151727007482247</v>
+        <v>-0.1439094791148602</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -1587,13 +1645,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-13.10500781263042</v>
+        <v>-13.10009424853238</v>
       </c>
       <c r="E8" t="n">
-        <v>61.95589451194571</v>
+        <v>63.38072723260087</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2115215657180714</v>
+        <v>-0.206688922966383</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -1612,13 +1670,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-13.0435095406679</v>
+        <v>-12.97515026188998</v>
       </c>
       <c r="E9" t="n">
-        <v>63.56769660904976</v>
+        <v>61.75391226475367</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2051908474973902</v>
+        <v>-0.2101105790069207</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1637,13 +1695,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.704238898721216</v>
+        <v>4.694808086859498</v>
       </c>
       <c r="E10" t="n">
-        <v>51.01630598256916</v>
+        <v>51.15843463834737</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09221049639165411</v>
+        <v>0.09176997146312919</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1662,13 +1720,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.528520338634093</v>
+        <v>4.474467273522572</v>
       </c>
       <c r="E11" t="n">
-        <v>37.19351700381096</v>
+        <v>37.59905558831573</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1217556365581154</v>
+        <v>0.1190047782719589</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1687,13 +1745,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-39.79011178579834</v>
+        <v>-39.31986002550333</v>
       </c>
       <c r="E12" t="n">
-        <v>109.5748457866197</v>
+        <v>116.9221498488122</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3631318073062455</v>
+        <v>-0.3362909429594514</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1712,13 +1770,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-2.836100251980071</v>
+        <v>-2.802104209609281</v>
       </c>
       <c r="E13" t="n">
-        <v>7.809269157657198</v>
+        <v>8.34001781659766</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3631710208373594</v>
+        <v>-0.3359830004239019</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1733,17 +1791,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mint_purchase_InStore</t>
+          <t>discount_inc</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-1.001071162099123</v>
+        <v>0.3267054394355639</v>
       </c>
       <c r="E14" t="n">
-        <v>17.99384769518471</v>
+        <v>3.500642062691034</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.05563407999540964</v>
+        <v>0.09332729070404215</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1758,17 +1816,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fluoride_purchase_InStore</t>
+          <t>mint_purchase_InStore</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.087166200925775</v>
+        <v>-1.009474269785324</v>
       </c>
       <c r="E15" t="n">
-        <v>43.25905386300439</v>
+        <v>18.51493326283818</v>
       </c>
       <c r="F15" t="n">
-        <v>0.140714270362986</v>
+        <v>-0.05452216626734846</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1783,17 +1841,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>kids_purchase_InStore</t>
+          <t>fluoride_purchase_InStore</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-2.950184320589048</v>
+        <v>5.945043288936412</v>
       </c>
       <c r="E16" t="n">
-        <v>47.69163754300042</v>
+        <v>44.01788845296514</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06185957271710497</v>
+        <v>0.1350597109011471</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -1808,17 +1866,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sizeNorm_purchase_InStore</t>
+          <t>kids_purchase_InStore</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-7.003516760923456</v>
+        <v>-2.968407969352248</v>
       </c>
       <c r="E17" t="n">
-        <v>45.86002531872274</v>
+        <v>49.06468261936671</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1527150652937867</v>
+        <v>-0.06049989138583695</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1833,17 +1891,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>discount_purchase_InStore</t>
+          <t>sizeNorm_purchase_InStore</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.1481986980546692</v>
+        <v>-7.024208012621799</v>
       </c>
       <c r="E18" t="n">
-        <v>11.25556055393094</v>
+        <v>52.05693531625221</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01316670967603756</v>
+        <v>-0.1349331836372787</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1858,17 +1916,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>white_ed_HighSchool</t>
+          <t>discount_purchase_InStore</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.01108604785191978</v>
+        <v>0.1502105862675729</v>
       </c>
       <c r="E19" t="n">
-        <v>7.695155655031779</v>
+        <v>12.228107276308</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001440652840423148</v>
+        <v>0.01228404223755923</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -1883,17 +1941,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>fluoride_ed_HighSchool</t>
+          <t>brand_Aquafresh_ed_HighSchool</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.7189503173731564</v>
+        <v>0.9557643557577641</v>
       </c>
       <c r="E20" t="n">
-        <v>12.2778301183953</v>
+        <v>9.603805762918984</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.05855678979431281</v>
+        <v>0.09951933424643407</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1908,17 +1966,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sizeNorm_ed_HighSchool</t>
+          <t>brand_Sensodyne_ed_HighSchool</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.490708565494063</v>
+        <v>-0.7505784146203072</v>
       </c>
       <c r="E21" t="n">
-        <v>4.751426448631126</v>
+        <v>3.875008292356089</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1032760521075592</v>
+        <v>-0.1936972408809838</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1933,17 +1991,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>familypack_ed_HighSchool</t>
+          <t>white_ed_HighSchool</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.380804975497034</v>
+        <v>-0.02102772814563292</v>
       </c>
       <c r="E22" t="n">
-        <v>6.109481386108709</v>
+        <v>10.00694242917286</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06233016379473393</v>
+        <v>-0.002101313992207208</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1953,22 +2011,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>betaU</t>
+          <t>betaO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>brand_Aquafresh</t>
+          <t>fluoride_ed_HighSchool</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-9.797931679486808</v>
+        <v>-0.6247474521922235</v>
       </c>
       <c r="E23" t="n">
-        <v>68.20913173194319</v>
+        <v>13.6163717924205</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1436454537787103</v>
+        <v>-0.04588207943469835</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
@@ -1978,22 +2036,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>betaU</t>
+          <t>betaO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brand_Colgate</t>
+          <t>sizeNorm_ed_HighSchool</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.64617121475632</v>
+        <v>-0.4089210520445608</v>
       </c>
       <c r="E24" t="n">
-        <v>158.8641708451807</v>
+        <v>1.878075195416773</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01036213015180483</v>
+        <v>-0.2177341211057394</v>
       </c>
       <c r="G24" t="inlineStr"/>
     </row>
@@ -2008,17 +2066,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brand_Sensodyne</t>
+          <t>brand_Aquafresh</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5.121138812330087</v>
+        <v>-9.90338112400357</v>
       </c>
       <c r="E25" t="n">
-        <v>33.1971338769989</v>
+        <v>76.66330635822204</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1542644865458804</v>
+        <v>-0.1291801983823705</v>
       </c>
       <c r="G25" t="inlineStr"/>
     </row>
@@ -2033,17 +2091,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>mint</t>
+          <t>brand_Colgate</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3.41915120662302</v>
+        <v>1.534702199084966</v>
       </c>
       <c r="E26" t="n">
-        <v>23.11856128674216</v>
+        <v>164.4179261331999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1478963662234383</v>
+        <v>0.009334153733587768</v>
       </c>
       <c r="G26" t="inlineStr"/>
     </row>
@@ -2058,17 +2116,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>brand_Sensodyne</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-5.203604341473309</v>
+        <v>5.035674488754635</v>
       </c>
       <c r="E27" t="n">
-        <v>62.92674394117997</v>
+        <v>34.13935062249477</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.08269304933904281</v>
+        <v>0.1475035229708375</v>
       </c>
       <c r="G27" t="inlineStr"/>
     </row>
@@ -2083,17 +2141,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>fluoride</t>
+          <t>mint</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.75105552740648</v>
+        <v>3.411671628321767</v>
       </c>
       <c r="E28" t="n">
-        <v>140.5862544303312</v>
+        <v>26.77870423924428</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01245538217446594</v>
+        <v>0.1274024164067637</v>
       </c>
       <c r="G28" t="inlineStr"/>
     </row>
@@ -2108,17 +2166,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>kids</t>
+          <t>white</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-2.396529437162348</v>
+        <v>-5.331432406270307</v>
       </c>
       <c r="E29" t="n">
-        <v>21.51937507409842</v>
+        <v>54.50279073587495</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1113661260566487</v>
+        <v>-0.09781943886335787</v>
       </c>
       <c r="G29" t="inlineStr"/>
     </row>
@@ -2133,17 +2191,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sizeNorm</t>
+          <t>fluoride</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-7.69790071181397</v>
+        <v>1.630691772135579</v>
       </c>
       <c r="E30" t="n">
-        <v>96.88755683873713</v>
+        <v>134.9252684973302</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.07945190242155256</v>
+        <v>0.01208588865745223</v>
       </c>
       <c r="G30" t="inlineStr"/>
     </row>
@@ -2158,17 +2216,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>discount</t>
+          <t>kids</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6.227749973103948</v>
+        <v>-2.36764840567003</v>
       </c>
       <c r="E31" t="n">
-        <v>55.12044299368025</v>
+        <v>21.34981120471248</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1129843962578091</v>
+        <v>-0.1108978614830761</v>
       </c>
       <c r="G31" t="inlineStr"/>
     </row>
@@ -2183,17 +2241,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>familypack</t>
+          <t>sizeNorm</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-3.258336010694928</v>
+        <v>-7.666913550776663</v>
       </c>
       <c r="E32" t="n">
-        <v>35.27047761541915</v>
+        <v>96.38789939273724</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0923813974458482</v>
+        <v>-0.0795422827873595</v>
       </c>
       <c r="G32" t="inlineStr"/>
     </row>
@@ -2208,19 +2266,69 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>discount</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>6.22859591171694</v>
+      </c>
+      <c r="E33" t="n">
+        <v>58.53117613619732</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1064150137223195</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>betaU</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>familypack</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>-3.205130741588005</v>
+      </c>
+      <c r="E34" t="n">
+        <v>33.87312731420899</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.09462163655150695</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>betaU</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>priceperoz</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>0.9984407402309055</v>
-      </c>
-      <c r="E33" t="n">
-        <v>16.13200534253339</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.06189191728063916</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>0.9784203015451894</v>
+      </c>
+      <c r="E35" t="n">
+        <v>15.96173922335375</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.06129785030654144</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2306,34 +2414,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.659484634372935</v>
+        <v>-4.673611568102466</v>
       </c>
       <c r="D2" t="n">
-        <v>2.833454847706527</v>
+        <v>2.85752502229181</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01867541360411732</v>
+        <v>0.01878382092090829</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4380569930327012</v>
+        <v>0.4370189158526141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06011577054619462</v>
+        <v>0.05838262121597485</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6314240872700032</v>
+        <v>0.6303463026302275</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005986435655166091</v>
+        <v>0.005698913703155097</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5352219019224302</v>
+        <v>0.5328037376844238</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002128269376393058</v>
+        <v>0.001532187469499331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.134294319071828</v>
+        <v>0.1314199130128937</v>
       </c>
     </row>
     <row r="3">
@@ -2344,34 +2452,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9680950065215778</v>
+        <v>0.9772519915121449</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.491742351315033</v>
+        <v>-2.509764678684622</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01185993283980475</v>
+        <v>0.01296721667914373</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2836404569710029</v>
+        <v>0.2828187597016426</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06653684617649515</v>
+        <v>0.06575397835499884</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5579233848498911</v>
+        <v>0.5571717662665514</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01057178150053248</v>
+        <v>0.01094501825417782</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5033134623827974</v>
+        <v>0.5113389382618128</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002170362022371401</v>
+        <v>0.0001967950565297468</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08819593278367142</v>
+        <v>0.09037228431112672</v>
       </c>
     </row>
     <row r="4">
@@ -2382,34 +2490,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.194393761248375</v>
+        <v>-3.234367920379033</v>
       </c>
       <c r="D4" t="n">
-        <v>5.683079549359527</v>
+        <v>6.077113742512729</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.18201846827278</v>
+        <v>-7.521363677717835</v>
       </c>
       <c r="F4" t="n">
-        <v>1.090333415509816</v>
+        <v>1.027171617807207</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5941747581064489</v>
+        <v>0.6111809513686904</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8894468989963925</v>
+        <v>1.036548489921391</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03856095558047307</v>
+        <v>0.03870017513490535</v>
       </c>
       <c r="J4" t="n">
-        <v>1.350582862941241</v>
+        <v>1.225168497119989</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1997190809898619</v>
+        <v>0.2176716881526095</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6373728933764236</v>
+        <v>0.5954252315698478</v>
       </c>
     </row>
     <row r="5">
@@ -2420,34 +2528,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.340096114201171</v>
+        <v>1.34028002743574</v>
       </c>
       <c r="D5" t="n">
-        <v>2.810033621436158</v>
+        <v>2.812108396181038</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02083090300253955</v>
+        <v>0.01863773082595489</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.830851189983014</v>
+        <v>-6.883475239163445</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1835022065065749</v>
+        <v>0.1852956249077456</v>
       </c>
       <c r="H5" t="n">
-        <v>1.029882012591508</v>
+        <v>1.058695926806305</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02884010973251637</v>
+        <v>0.03158269503185492</v>
       </c>
       <c r="J5" t="n">
-        <v>1.08623881958189</v>
+        <v>1.113287501750154</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0140485147819886</v>
+        <v>0.01233120786326544</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3173048564163598</v>
+        <v>0.3115780480769915</v>
       </c>
     </row>
     <row r="6">
@@ -2458,34 +2566,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.061750927414024</v>
+        <v>1.073241066208403</v>
       </c>
       <c r="D6" t="n">
-        <v>4.414514901515224</v>
+        <v>4.436615631231005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02066392627314349</v>
+        <v>0.02038018817764129</v>
       </c>
       <c r="F6" t="n">
-        <v>1.138132072256135</v>
+        <v>1.159172383271137</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.52144303356045</v>
+        <v>-9.57858149581828</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9555129830236017</v>
+        <v>0.9759348213784808</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07042709091845424</v>
+        <v>0.08183692735452898</v>
       </c>
       <c r="J6" t="n">
-        <v>1.263314838215965</v>
+        <v>1.242788305796972</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01093433053305054</v>
+        <v>0.009269342116536948</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5897833393600365</v>
+        <v>0.581102148096554</v>
       </c>
     </row>
     <row r="7">
@@ -2496,34 +2604,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.096450626571355</v>
+        <v>1.092542428362151</v>
       </c>
       <c r="D7" t="n">
-        <v>3.038149235801871</v>
+        <v>3.003899380695937</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005731603808932487</v>
+        <v>0.007548726241363215</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5714581889042447</v>
+        <v>0.578705397065541</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08386103276866681</v>
+        <v>0.08290397575333799</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.866908664726072</v>
+        <v>-5.826782221652911</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008551711983682424</v>
+        <v>0.008118171167599091</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8823950342978967</v>
+        <v>0.8666194099397109</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00192045641703764</v>
+        <v>0.00310465144520192</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1783355946098384</v>
+        <v>0.1831602837707213</v>
       </c>
     </row>
     <row r="8">
@@ -2534,34 +2642,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.021242802035378</v>
+        <v>-3.949745603992093</v>
       </c>
       <c r="D8" t="n">
-        <v>4.797553939551649</v>
+        <v>4.740553007908312</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05349320507274073</v>
+        <v>0.05357506316853536</v>
       </c>
       <c r="F8" t="n">
-        <v>1.198721684863658</v>
+        <v>1.217924931260935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7545103407560979</v>
+        <v>0.7839041179187771</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9443597202704781</v>
+        <v>0.933283673989179</v>
       </c>
       <c r="I8" t="n">
-        <v>-6.505229998918499</v>
+        <v>-6.631019622176503</v>
       </c>
       <c r="J8" t="n">
-        <v>2.349615826215635</v>
+        <v>2.42804384647491</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04713233766831213</v>
+        <v>0.0377023079811328</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4808468284998496</v>
+        <v>0.4515014137411844</v>
       </c>
     </row>
     <row r="9">
@@ -2572,34 +2680,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7985050824180489</v>
+        <v>0.7989990563229287</v>
       </c>
       <c r="D9" t="n">
-        <v>2.332872681772178</v>
+        <v>2.364942313524925</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01179265896171805</v>
+        <v>0.008935683985014571</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5118218460173194</v>
+        <v>0.5211491732529485</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09399619098609013</v>
+        <v>0.09042091938129058</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7495567457156269</v>
+        <v>0.7422489134390047</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03276568153498267</v>
+        <v>0.03497287785014543</v>
       </c>
       <c r="J9" t="n">
-        <v>-4.775799383636831</v>
+        <v>-4.802568927704578</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00104229043088317</v>
+        <v>0.0008699087361196156</v>
       </c>
       <c r="L9" t="n">
-        <v>0.243382006794387</v>
+        <v>0.2399351483544731</v>
       </c>
     </row>
     <row r="10">
@@ -2610,34 +2718,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-9.461087122087624</v>
+        <v>-9.77228804865865</v>
       </c>
       <c r="D10" t="n">
-        <v>5.260569312564598</v>
+        <v>5.219478258403051</v>
       </c>
       <c r="E10" t="n">
-        <v>0.385660692799126</v>
+        <v>0.4369372758399594</v>
       </c>
       <c r="F10" t="n">
-        <v>1.862307310268541</v>
+        <v>1.741838287586665</v>
       </c>
       <c r="G10" t="n">
-        <v>1.125142375405401</v>
+        <v>1.148739785519995</v>
       </c>
       <c r="H10" t="n">
-        <v>1.434324481891806</v>
+        <v>1.655152384950553</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03032224456574523</v>
+        <v>0.02684498637895246</v>
       </c>
       <c r="J10" t="n">
-        <v>1.462787777860244</v>
+        <v>1.507970532921562</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.464957609756838</v>
+        <v>-2.42840710054595</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5993477115213648</v>
+        <v>0.6234228158386771</v>
       </c>
     </row>
     <row r="11">
@@ -2648,34 +2756,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9794842081261815</v>
+        <v>0.9230932161040699</v>
       </c>
       <c r="D11" t="n">
-        <v>2.867938923928672</v>
+        <v>2.937936664642214</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04376744543214096</v>
+        <v>0.04204244678001592</v>
       </c>
       <c r="F11" t="n">
-        <v>1.006727995840834</v>
+        <v>0.9890776807737015</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3219134672910637</v>
+        <v>0.3179869183808309</v>
       </c>
       <c r="H11" t="n">
-        <v>1.026595038561892</v>
+        <v>1.072314233081768</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03043801279779665</v>
+        <v>0.03220098015340837</v>
       </c>
       <c r="J11" t="n">
-        <v>1.629044442387358</v>
+        <v>1.617901922517099</v>
       </c>
       <c r="K11" t="n">
-        <v>0.007022940710992371</v>
+        <v>0.01119675265871463</v>
       </c>
       <c r="L11" t="n">
-        <v>-7.90712842622684</v>
+        <v>-7.939142461785039</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/mod_4.xlsx
+++ b/outputs/mod_4.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-6.190262061689159</v>
+        <v>-8.745044588135665</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04979170659428885</v>
+        <v>1.361925618915828</v>
       </c>
       <c r="F2" t="n">
-        <v>-124.32315510148</v>
+        <v>-6.421088249369471</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,19 +511,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.583604202306773</v>
+        <v>6.004032227779958</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06270321139637046</v>
+        <v>4.991220482969364</v>
       </c>
       <c r="F3" t="n">
-        <v>120.9444306507361</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>1.202918654518755</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,13 +536,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-5.530362883645833</v>
+        <v>-12.31158280516602</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03601768618966506</v>
+        <v>3.995106173014685</v>
       </c>
       <c r="F4" t="n">
-        <v>-153.5457567852518</v>
+        <v>-3.081665986332415</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -569,19 +565,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.765558564136067</v>
+        <v>-0.2978265466486646</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07380718373507195</v>
+        <v>7.591917811286666</v>
       </c>
       <c r="F5" t="n">
-        <v>23.92122927320288</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.03922942187360028</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,13 +590,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-14.11526463126558</v>
+        <v>-16.63531798051648</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04713631413216796</v>
+        <v>5.023517214645476</v>
       </c>
       <c r="F6" t="n">
-        <v>-299.4562661748872</v>
+        <v>-3.311488200342612</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,19 +619,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-8.392951529243298</v>
+        <v>-3.54557339085526</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02613851231790497</v>
+        <v>6.659640720202226</v>
       </c>
       <c r="F7" t="n">
-        <v>-321.0952263528058</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.5323970976541803</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -656,13 +644,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-11.97213196173097</v>
+        <v>-18.11447357180121</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1843215271143889</v>
+        <v>3.884926706922454</v>
       </c>
       <c r="F8" t="n">
-        <v>-64.95243474356164</v>
+        <v>-4.662758126047393</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -685,13 +673,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-10.91739025503734</v>
+        <v>-20.17385993164822</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03951185204962188</v>
+        <v>5.19306247095408</v>
       </c>
       <c r="F9" t="n">
-        <v>-276.306720356375</v>
+        <v>-3.884771277928001</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -714,13 +702,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.721157888492214</v>
+        <v>3.661198444795655</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03666920559851694</v>
+        <v>1.067517322660247</v>
       </c>
       <c r="F10" t="n">
-        <v>74.20825851221248</v>
+        <v>3.429638439657324</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -743,19 +731,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.566408013177578</v>
+        <v>3.258898347968124</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1351505535411541</v>
+        <v>6.284765962466934</v>
       </c>
       <c r="F11" t="n">
-        <v>26.38840848026262</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5185393326387164</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -772,19 +756,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-45.5735821934728</v>
+        <v>-19.64269813498916</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06764869019303577</v>
+        <v>37.07969971816591</v>
       </c>
       <c r="F12" t="n">
-        <v>-673.6801860232391</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.5297426431251788</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -792,28 +772,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>priceperoz_inc</t>
+          <t>brand_Aquafresh</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-3.248282116824709</v>
+        <v>6.794551510108913</v>
       </c>
       <c r="E13" t="n">
-        <v>1.699483191753331</v>
+        <v>4.726818304627319</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.91133524155276</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>1.437447152021347</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -821,22 +797,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>discount_inc</t>
+          <t>brand_Colgate</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2092054828943802</v>
+        <v>-4.385335264822872</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4319270024503398</v>
+        <v>12.90389693860833</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4843537952189811</v>
+        <v>-0.3398458067114588</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -846,26 +822,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>mint_purchase_InStore</t>
+          <t>brand_Sensodyne</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-2.229477996849051</v>
+        <v>-9.157556927628317</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1641013225268258</v>
+        <v>3.695565261863478</v>
       </c>
       <c r="F15" t="n">
-        <v>-13.58598433284775</v>
+        <v>-2.477985444373033</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -875,28 +851,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>fluoride_purchase_InStore</t>
+          <t>mint</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6.053800200531559</v>
+        <v>-1.692111054871366</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0386741930748419</v>
+        <v>14.93263686898696</v>
       </c>
       <c r="F16" t="n">
-        <v>156.5333293138478</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.1133162930108914</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -904,28 +876,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>kids_purchase_InStore</t>
+          <t>white</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-2.157624911201334</v>
+        <v>9.434721725692482</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3277297566353408</v>
+        <v>8.941125071942949</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.583548998884728</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>1.055205206255131</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -933,28 +901,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sizeNorm_purchase_InStore</t>
+          <t>fluoride</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-6.546561135258249</v>
+        <v>7.409060030979714</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1166750560267083</v>
+        <v>5.664483030497871</v>
       </c>
       <c r="F18" t="n">
-        <v>-56.10934640356774</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>1.307985210846065</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,28 +926,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>discount_purchase_InStore</t>
+          <t>kids</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.341067688536664</v>
+        <v>-0.06544097443945987</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1260543891637066</v>
+        <v>6.413839864573049</v>
       </c>
       <c r="F19" t="n">
-        <v>10.6388020078779</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>-0.01020308829363268</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -991,28 +951,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brand_Aquafresh_ed_HighSchool</t>
+          <t>sizeNorm</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.327204685626635</v>
+        <v>1.602412336892964</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3956954632631855</v>
+        <v>4.796893727648833</v>
       </c>
       <c r="F20" t="n">
-        <v>3.354106399607324</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3340520820081574</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1020,28 +976,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brand_Sensodyne_ed_HighSchool</t>
+          <t>discount</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.8615728665845095</v>
+        <v>-0.7938484938435904</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4827849933238855</v>
+        <v>9.259730570497901</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.784589161839393</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>-0.08573127347493704</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1049,22 +1001,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>white_ed_HighSchool</t>
+          <t>familypack</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.3681727851264142</v>
+        <v>5.957543996841168</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6518613141237047</v>
+        <v>15.11143113390787</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5648023239749207</v>
+        <v>0.3942408858597978</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -1074,360 +1026,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>fluoride_ed_HighSchool</t>
+          <t>priceperoz</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.169259462507365</v>
+        <v>1.78706903178988</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3258976738785976</v>
+        <v>103.5945329398447</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5193638251324769</v>
+        <v>0.01725061140849582</v>
       </c>
       <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>sizeNorm_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.1013840461851527</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5045590259679944</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.2009359479609899</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>brand_Aquafresh</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>-5.913292123100133</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.01963164020592483</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-301.2123317803828</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>brand_Colgate</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>6.609141874361804</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.355057119857493</v>
-      </c>
-      <c r="F26" t="n">
-        <v>18.61430599396084</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>brand_Sensodyne</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>6.558105215577594</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.01965249242575925</v>
-      </c>
-      <c r="F27" t="n">
-        <v>333.7034852119644</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>mint</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1.933539426334018</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.1587763920369567</v>
-      </c>
-      <c r="F28" t="n">
-        <v>12.17775137429731</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>-4.37255574530918</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.2165791234042512</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-20.18918387229631</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>fluoride</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0.1159123142384506</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.3960048889432048</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.2927042505656409</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>kids</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>-2.710433079715244</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.137465530859498</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-19.71718337512222</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>sizeNorm</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>-4.177172301359525</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.1922348020137652</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-21.72953210137472</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>discount</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>4.401483555240157</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.1691585110340978</v>
-      </c>
-      <c r="F33" t="n">
-        <v>26.01987643620802</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>familypack</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>-3.739667051582335</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.2905797290630483</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-12.86967629724413</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>priceperoz</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0.3868236113617964</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.4995186395130905</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.7743927468629712</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1440,7 +1056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1495,13 +1111,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-9.487620836938314</v>
+        <v>-9.345297688177084</v>
       </c>
       <c r="E2" t="n">
-        <v>83.43982940763175</v>
+        <v>57.26373566547726</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1137061389541928</v>
+        <v>-0.1631974858009675</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -1520,13 +1136,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.02655493941054</v>
+        <v>5.301417472783099</v>
       </c>
       <c r="E3" t="n">
-        <v>41.85317648477103</v>
+        <v>57.52129582637431</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1678858220466795</v>
+        <v>0.09216443052300512</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -1545,13 +1161,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-7.28112893587523</v>
+        <v>-12.20040866183481</v>
       </c>
       <c r="E4" t="n">
-        <v>49.55562890977488</v>
+        <v>24.5239966113743</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1469283933240331</v>
+        <v>-0.4974885967883485</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -1570,13 +1186,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.989955794719959</v>
+        <v>-2.367093360157043</v>
       </c>
       <c r="E5" t="n">
-        <v>48.36418383509057</v>
+        <v>38.86401807011674</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0411452367625017</v>
+        <v>-0.06090706719738647</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -1595,13 +1211,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-15.56703251059482</v>
+        <v>-14.91097070076889</v>
       </c>
       <c r="E6" t="n">
-        <v>35.60072108353096</v>
+        <v>219.956362918782</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4372673371999815</v>
+        <v>-0.06779058583667665</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -1620,13 +1236,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-8.596969730095228</v>
+        <v>0.306920433750248</v>
       </c>
       <c r="E7" t="n">
-        <v>59.73873147879041</v>
+        <v>80.48886030626508</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1439094791148602</v>
+        <v>0.003813203871720842</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -1645,13 +1261,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-13.10009424853238</v>
+        <v>-19.47722599730792</v>
       </c>
       <c r="E8" t="n">
-        <v>63.38072723260087</v>
+        <v>96.83268830327303</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.206688922966383</v>
+        <v>-0.2011430885436811</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -1670,13 +1286,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-12.97515026188998</v>
+        <v>-17.53773873639424</v>
       </c>
       <c r="E9" t="n">
-        <v>61.75391226475367</v>
+        <v>72.88503773137268</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2101105790069207</v>
+        <v>-0.2406219339699303</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1695,13 +1311,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.694808086859498</v>
+        <v>6.528516934025399</v>
       </c>
       <c r="E10" t="n">
-        <v>51.15843463834737</v>
+        <v>56.74163451458343</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09176997146312919</v>
+        <v>0.1150569064475482</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1720,13 +1336,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4.474467273522572</v>
+        <v>4.020447172591536</v>
       </c>
       <c r="E11" t="n">
-        <v>37.59905558831573</v>
+        <v>94.86790004206995</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1190047782719589</v>
+        <v>0.04237942624226567</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1745,13 +1361,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-39.31986002550333</v>
+        <v>-19.3133168702968</v>
       </c>
       <c r="E12" t="n">
-        <v>116.9221498488122</v>
+        <v>270.3355554530262</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.3362909429594514</v>
+        <v>-0.07144201523152104</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1761,22 +1377,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>priceperoz_inc</t>
+          <t>brand_Aquafresh</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-2.802104209609281</v>
+        <v>5.163042078107424</v>
       </c>
       <c r="E13" t="n">
-        <v>8.34001781659766</v>
+        <v>125.5095549313436</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3359830004239019</v>
+        <v>0.04113664557994584</v>
       </c>
       <c r="G13" t="inlineStr"/>
     </row>
@@ -1786,22 +1402,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>discount_inc</t>
+          <t>brand_Colgate</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3267054394355639</v>
+        <v>-4.427880450370192</v>
       </c>
       <c r="E14" t="n">
-        <v>3.500642062691034</v>
+        <v>71.33185099422973</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09332729070404215</v>
+        <v>-0.0620743803596009</v>
       </c>
       <c r="G14" t="inlineStr"/>
     </row>
@@ -1811,22 +1427,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>mint_purchase_InStore</t>
+          <t>brand_Sensodyne</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-1.009474269785324</v>
+        <v>-10.04739589476991</v>
       </c>
       <c r="E15" t="n">
-        <v>18.51493326283818</v>
+        <v>174.4156811880277</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.05452216626734846</v>
+        <v>-0.05760603534230608</v>
       </c>
       <c r="G15" t="inlineStr"/>
     </row>
@@ -1836,22 +1452,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>fluoride_purchase_InStore</t>
+          <t>mint</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5.945043288936412</v>
+        <v>-0.8622387245697334</v>
       </c>
       <c r="E16" t="n">
-        <v>44.01788845296514</v>
+        <v>222.143733087349</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1350597109011471</v>
+        <v>-0.003881445191301854</v>
       </c>
       <c r="G16" t="inlineStr"/>
     </row>
@@ -1861,22 +1477,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>kids_purchase_InStore</t>
+          <t>white</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-2.968407969352248</v>
+        <v>9.293595462656752</v>
       </c>
       <c r="E17" t="n">
-        <v>49.06468261936671</v>
+        <v>335.0038334772975</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06049989138583695</v>
+        <v>0.02774175855300044</v>
       </c>
       <c r="G17" t="inlineStr"/>
     </row>
@@ -1886,22 +1502,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sizeNorm_purchase_InStore</t>
+          <t>fluoride</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-7.024208012621799</v>
+        <v>10.65638605052642</v>
       </c>
       <c r="E18" t="n">
-        <v>52.05693531625221</v>
+        <v>292.8762580140187</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1349331836372787</v>
+        <v>0.03638528477107333</v>
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
@@ -1911,22 +1527,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>discount_purchase_InStore</t>
+          <t>kids</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.1502105862675729</v>
+        <v>0.7828709760720389</v>
       </c>
       <c r="E19" t="n">
-        <v>12.228107276308</v>
+        <v>120.1570712582884</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01228404223755923</v>
+        <v>0.006515396621054349</v>
       </c>
       <c r="G19" t="inlineStr"/>
     </row>
@@ -1936,22 +1552,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brand_Aquafresh_ed_HighSchool</t>
+          <t>sizeNorm</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9557643557577641</v>
+        <v>1.33781470936624</v>
       </c>
       <c r="E20" t="n">
-        <v>9.603805762918984</v>
+        <v>198.1924060461495</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09951933424643407</v>
+        <v>0.006750080570971662</v>
       </c>
       <c r="G20" t="inlineStr"/>
     </row>
@@ -1961,22 +1577,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brand_Sensodyne_ed_HighSchool</t>
+          <t>discount</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.7505784146203072</v>
+        <v>-0.7639645330507697</v>
       </c>
       <c r="E21" t="n">
-        <v>3.875008292356089</v>
+        <v>413.3677228320084</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1936972408809838</v>
+        <v>-0.001848147523025747</v>
       </c>
       <c r="G21" t="inlineStr"/>
     </row>
@@ -1986,22 +1602,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>white_ed_HighSchool</t>
+          <t>familypack</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.02102772814563292</v>
+        <v>5.595489635841634</v>
       </c>
       <c r="E22" t="n">
-        <v>10.00694242917286</v>
+        <v>84.88625262552604</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.002101313992207208</v>
+        <v>0.06591750092357147</v>
       </c>
       <c r="G22" t="inlineStr"/>
     </row>
@@ -2011,324 +1627,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>betaO</t>
+          <t>betaU</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>fluoride_ed_HighSchool</t>
+          <t>priceperoz</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.6247474521922235</v>
+        <v>1.641598702663281</v>
       </c>
       <c r="E23" t="n">
-        <v>13.6163717924205</v>
+        <v>337.5562345070219</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.04588207943469835</v>
+        <v>0.004863185848309765</v>
       </c>
       <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>betaO</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>sizeNorm_ed_HighSchool</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>-0.4089210520445608</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1.878075195416773</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.2177341211057394</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>brand_Aquafresh</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>-9.90338112400357</v>
-      </c>
-      <c r="E25" t="n">
-        <v>76.66330635822204</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.1291801983823705</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>brand_Colgate</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1.534702199084966</v>
-      </c>
-      <c r="E26" t="n">
-        <v>164.4179261331999</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.009334153733587768</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>brand_Sensodyne</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>5.035674488754635</v>
-      </c>
-      <c r="E27" t="n">
-        <v>34.13935062249477</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.1475035229708375</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>mint</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>3.411671628321767</v>
-      </c>
-      <c r="E28" t="n">
-        <v>26.77870423924428</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.1274024164067637</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>-5.331432406270307</v>
-      </c>
-      <c r="E29" t="n">
-        <v>54.50279073587495</v>
-      </c>
-      <c r="F29" t="n">
-        <v>-0.09781943886335787</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>fluoride</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>1.630691772135579</v>
-      </c>
-      <c r="E30" t="n">
-        <v>134.9252684973302</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.01208588865745223</v>
-      </c>
-      <c r="G30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>kids</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>-2.36764840567003</v>
-      </c>
-      <c r="E31" t="n">
-        <v>21.34981120471248</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-0.1108978614830761</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>sizeNorm</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>-7.666913550776663</v>
-      </c>
-      <c r="E32" t="n">
-        <v>96.38789939273724</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-0.0795422827873595</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>discount</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>6.22859591171694</v>
-      </c>
-      <c r="E33" t="n">
-        <v>58.53117613619732</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.1064150137223195</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>familypack</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>-3.205130741588005</v>
-      </c>
-      <c r="E34" t="n">
-        <v>33.87312731420899</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-0.09462163655150695</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>betaU</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>priceperoz</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0.9784203015451894</v>
-      </c>
-      <c r="E35" t="n">
-        <v>15.96173922335375</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.06129785030654144</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2341,7 +1657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2405,6 +1721,36 @@
           <t>p_10</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>L_singleProd</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>L_multiProd</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>L_merger</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_before</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_merger</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Change_welfare</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2414,34 +1760,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.673611568102466</v>
+        <v>-0.7760387278208627</v>
       </c>
       <c r="D2" t="n">
-        <v>2.85752502229181</v>
+        <v>0.3654205020323088</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01878382092090829</v>
+        <v>0.003638793385494865</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4370189158526141</v>
+        <v>0.1245042391244648</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05838262121597485</v>
+        <v>0.01663199065735784</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6303463026302275</v>
+        <v>0.1120821743912671</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005698913703155097</v>
+        <v>0.02488988873842738</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5328037376844238</v>
+        <v>0.08635883506777176</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001532187469499331</v>
+        <v>0.0003234340869666352</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1314199130128937</v>
+        <v>0.05682235941619115</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.288595483898112</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.749006214879554</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-33.35408600225236</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4119.007893687994</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2544.362001044235</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-36938.45105132181</v>
       </c>
     </row>
     <row r="3">
@@ -2452,34 +1816,52 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9772519915121449</v>
+        <v>0.1157552197679353</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.509764678684622</v>
+        <v>-0.4289198555664571</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01296721667914373</v>
+        <v>0.00194992956816037</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2828187597016426</v>
+        <v>0.05782932231918447</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06575397835499884</v>
+        <v>0.0334074062382889</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5571717662665514</v>
+        <v>0.09748161114200674</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01094501825417782</v>
+        <v>0.009529198975116594</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5113389382618128</v>
+        <v>0.1129833543323175</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001967950565297468</v>
+        <v>1.335599041431636e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09037228431112672</v>
+        <v>0.01886588821009969</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.331437882910178</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.082144863386025</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-4.658416686499324</v>
+      </c>
+      <c r="P3" t="n">
+        <v>14578.81670396174</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8108.1836610955</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-36938.45105132181</v>
       </c>
     </row>
     <row r="4">
@@ -2490,34 +1872,52 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.234367920379033</v>
+        <v>0.4423046459319431</v>
       </c>
       <c r="D4" t="n">
-        <v>6.077113742512729</v>
+        <v>0.7482304108087889</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.521363677717835</v>
+        <v>-2.331911902677704</v>
       </c>
       <c r="F4" t="n">
-        <v>1.027171617807207</v>
+        <v>0.2888048782193605</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6111809513686904</v>
+        <v>0.007462170229987426</v>
       </c>
       <c r="H4" t="n">
-        <v>1.036548489921391</v>
+        <v>0.2708950743617251</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03870017513490535</v>
+        <v>0.0003359064268120866</v>
       </c>
       <c r="J4" t="n">
-        <v>1.225168497119989</v>
+        <v>0.3288605526683167</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2176716881526095</v>
+        <v>1.022476203089092e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5954252315698478</v>
+        <v>0.0002191147408481794</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.4288326668137475</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.939203935040566</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.663345341147622</v>
+      </c>
+      <c r="P4" t="n">
+        <v>23.90431382280809</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>18.537781458803</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-36938.45105132181</v>
       </c>
     </row>
     <row r="5">
@@ -2528,34 +1928,52 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.34028002743574</v>
+        <v>0.2824260978328238</v>
       </c>
       <c r="D5" t="n">
-        <v>2.812108396181038</v>
+        <v>0.4141151472268719</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01863773082595489</v>
+        <v>0.005389656748215788</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.883475239163445</v>
+        <v>-1.090591356818168</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1852956249077456</v>
+        <v>0.0290770383189295</v>
       </c>
       <c r="H5" t="n">
-        <v>1.058695926806305</v>
+        <v>0.1718333663366052</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03158269503185492</v>
+        <v>0.02549750912813523</v>
       </c>
       <c r="J5" t="n">
-        <v>1.113287501750154</v>
+        <v>0.09708672034158584</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01233120786326544</v>
+        <v>1.281201902502857e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3115780480769915</v>
+        <v>0.08555076619796739</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.9169337293461858</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.111380811090491</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.070318827082008</v>
+      </c>
+      <c r="P5" t="n">
+        <v>734.1065678010232</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1119.819790233315</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-36938.45105132181</v>
       </c>
     </row>
     <row r="6">
@@ -2566,34 +1984,52 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.073241066208403</v>
+        <v>0.226474947486879</v>
       </c>
       <c r="D6" t="n">
-        <v>4.436615631231005</v>
+        <v>1.436054821789878</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02038018817764129</v>
+        <v>0.0008359436108206291</v>
       </c>
       <c r="F6" t="n">
-        <v>1.159172383271137</v>
+        <v>0.1745441979758738</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.57858149581828</v>
+        <v>-2.843087064622265</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9759348213784808</v>
+        <v>0.1828473523136757</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08183692735452898</v>
+        <v>0.0006421198530928252</v>
       </c>
       <c r="J6" t="n">
-        <v>1.242788305796972</v>
+        <v>0.5035779207414048</v>
       </c>
       <c r="K6" t="n">
-        <v>0.009269342116536948</v>
+        <v>4.904917822570806e-09</v>
       </c>
       <c r="L6" t="n">
-        <v>0.581102148096554</v>
+        <v>0.07257661987510822</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.3517303470735819</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4939548219338964</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.7538407808898581</v>
+      </c>
+      <c r="P6" t="n">
+        <v>54.35358531113453</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>170.5272469513408</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-36938.45105132181</v>
       </c>
     </row>
     <row r="7">
@@ -2604,34 +2040,52 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.092542428362151</v>
+        <v>0.1454113944500092</v>
       </c>
       <c r="D7" t="n">
-        <v>3.003899380695937</v>
+        <v>0.3992426375840673</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007548726241363215</v>
+        <v>0.002891338208410667</v>
       </c>
       <c r="F7" t="n">
-        <v>0.578705397065541</v>
+        <v>0.0982762786016444</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08290397575333799</v>
+        <v>0.01742106223744211</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.826782221652911</v>
+        <v>-0.9715756276323532</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008118171167599091</v>
+        <v>0.04226844068660939</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8666194099397109</v>
+        <v>0.1239835836814022</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00310465144520192</v>
+        <v>3.649002244779725e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1831602837707213</v>
+        <v>0.03332373029932643</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.029255954512686</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.15053070098382</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.111392103307136</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1328.780428991383</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1734.574659087082</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-36938.45105132181</v>
       </c>
     </row>
     <row r="8">
@@ -2642,34 +2096,52 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.949745603992093</v>
+        <v>0.4910319418007938</v>
       </c>
       <c r="D8" t="n">
-        <v>4.740553007908312</v>
+        <v>0.5934655452542673</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05357506316853536</v>
+        <v>5.451813583430895e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>1.217924931260935</v>
+        <v>0.2217501170230228</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7839041179187771</v>
+        <v>0.000930308418994109</v>
       </c>
       <c r="H8" t="n">
-        <v>0.933283673989179</v>
+        <v>0.6427485771743959</v>
       </c>
       <c r="I8" t="n">
-        <v>-6.631019622176503</v>
+        <v>-2.426664777745727</v>
       </c>
       <c r="J8" t="n">
-        <v>2.42804384647491</v>
+        <v>0.09931276337799458</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0377023079811328</v>
+        <v>0.0003950149682807382</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4515014137411844</v>
+        <v>0.07188986565456672</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.412088232858005</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.4583035976051418</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.7262156826495534</v>
+      </c>
+      <c r="P8" t="n">
+        <v>34.80834543054697</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>109.1297400369205</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-36938.45105132181</v>
       </c>
     </row>
     <row r="9">
@@ -2680,34 +2152,52 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7989990563229287</v>
+        <v>0.1193411810300611</v>
       </c>
       <c r="D9" t="n">
-        <v>2.364942313524925</v>
+        <v>0.4928903851653222</v>
       </c>
       <c r="E9" t="n">
-        <v>0.008935683985014571</v>
+        <v>0.003738791389385104</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5211491732529485</v>
+        <v>0.05914563510737741</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09042091938129058</v>
+        <v>0.05110628366219029</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7422489134390047</v>
+        <v>0.1320644265183657</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03497287785014543</v>
+        <v>0.006956676906565207</v>
       </c>
       <c r="J9" t="n">
-        <v>-4.802568927704578</v>
+        <v>-0.8883647963765215</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0008699087361196156</v>
+        <v>2.387536529799965e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2399351483544731</v>
+        <v>0.0491539757271556</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.125663695903775</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.129252615755912</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.081465667260687</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1224.403187895038</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1860.419166161769</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-36938.45105132181</v>
       </c>
     </row>
     <row r="10">
@@ -2718,34 +2208,52 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-9.77228804865865</v>
+        <v>0.4535502244558289</v>
       </c>
       <c r="D10" t="n">
-        <v>5.219478258403051</v>
+        <v>0.00591245736950132</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4369372758399594</v>
+        <v>0.0001179583535563405</v>
       </c>
       <c r="F10" t="n">
-        <v>1.741838287586665</v>
+        <v>0.0007920206145131866</v>
       </c>
       <c r="G10" t="n">
-        <v>1.148739785519995</v>
+        <v>5.051209692601317e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>1.655152384950553</v>
+        <v>0.003944135590362709</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02684498637895246</v>
+        <v>0.02807801239569284</v>
       </c>
       <c r="J10" t="n">
-        <v>1.507970532921562</v>
+        <v>0.002422735854700654</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.42840710054595</v>
+        <v>-0.546761254477509</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6234228158386771</v>
+        <v>0.004260525894856488</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.828951835578786</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.833585950774129</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.187835537356163</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.959199122616634</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.640537074736698</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-36938.45105132181</v>
       </c>
     </row>
     <row r="11">
@@ -2756,34 +2264,52 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9230932161040699</v>
+        <v>0.4311029622134873</v>
       </c>
       <c r="D11" t="n">
-        <v>2.937936664642214</v>
+        <v>0.4518469207200721</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04204244678001592</v>
+        <v>1.367631940745706e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9890776807737015</v>
+        <v>0.2861310315711584</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3179869183808309</v>
+        <v>0.04043733694099853</v>
       </c>
       <c r="H11" t="n">
-        <v>1.072314233081768</v>
+        <v>0.1948738043299214</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03220098015340837</v>
+        <v>0.02764665718705879</v>
       </c>
       <c r="J11" t="n">
-        <v>1.617901922517099</v>
+        <v>0.2698589577901363</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01119675265871463</v>
+        <v>2.305076567132909e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>-7.939142461785039</v>
+        <v>-1.681577965421258</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5946795334877537</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5947046679513104</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.8070057299773439</v>
+      </c>
+      <c r="P11" t="n">
+        <v>117.4509423841288</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>334.7025055883614</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-36938.45105132181</v>
       </c>
     </row>
   </sheetData>
